--- a/data/trans_orig/P21_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>98304</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81861</v>
+        <v>81215</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118669</v>
+        <v>115790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1989696203658615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1656888998708703</v>
+        <v>0.1643809693439935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2401903703749774</v>
+        <v>0.2343617599399948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -765,19 +765,19 @@
         <v>111501</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93978</v>
+        <v>93950</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130290</v>
+        <v>130556</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2389902607986497</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2014327067816785</v>
+        <v>0.2013726936680579</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2792637439421283</v>
+        <v>0.2798337481403509</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>214</v>
@@ -786,19 +786,19 @@
         <v>209804</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>185950</v>
+        <v>187815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>234600</v>
+        <v>237798</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2184067746311652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1935742533727419</v>
+        <v>0.1955162246137249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.244218617339469</v>
+        <v>0.2475479699127364</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>395760</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>375395</v>
+        <v>378274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412203</v>
+        <v>412849</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8010303796341385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.759809629625023</v>
+        <v>0.7656382400600049</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8343111001291298</v>
+        <v>0.8356190306560065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>371</v>
@@ -836,19 +836,19 @@
         <v>355048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>336259</v>
+        <v>335993</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>372571</v>
+        <v>372599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7610097392013503</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7207362560578714</v>
+        <v>0.720166251859649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7985672932183214</v>
+        <v>0.7986273063319421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>773</v>
@@ -857,19 +857,19 @@
         <v>750809</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>726013</v>
+        <v>722815</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>774663</v>
+        <v>772798</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7815932253688348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7557813826605311</v>
+        <v>0.7524520300872636</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8064257466272581</v>
+        <v>0.8044837753862751</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>111362</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>94001</v>
+        <v>93350</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130449</v>
+        <v>132625</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1514124336222391</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.127807723369278</v>
+        <v>0.1269222593573801</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1773630099170165</v>
+        <v>0.1803215648485114</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>173</v>
@@ -982,19 +982,19 @@
         <v>185252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162342</v>
+        <v>162272</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>210251</v>
+        <v>209167</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2961692436546092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2595422749987124</v>
+        <v>0.259430790598489</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3361355027719306</v>
+        <v>0.334402974441706</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>281</v>
@@ -1003,19 +1003,19 @@
         <v>296614</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>270643</v>
+        <v>267969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>329514</v>
+        <v>328919</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2179412057825352</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1988583138801593</v>
+        <v>0.1968938721504634</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2421150081260751</v>
+        <v>0.2416774794868622</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>624127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>605040</v>
+        <v>602864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>641488</v>
+        <v>642139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8485875663777609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8226369900829834</v>
+        <v>0.8196784351514886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.872192276630722</v>
+        <v>0.87307774064262</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>418</v>
@@ -1053,19 +1053,19 @@
         <v>440242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415243</v>
+        <v>416327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>463152</v>
+        <v>463222</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7038307563453908</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6638644972280695</v>
+        <v>0.6655970255582941</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7404577250012877</v>
+        <v>0.7405692094015111</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1013</v>
@@ -1074,19 +1074,19 @@
         <v>1064368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1031468</v>
+        <v>1032063</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1090339</v>
+        <v>1093013</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7820587942174648</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7578849918739249</v>
+        <v>0.7583225205131378</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8011416861198408</v>
+        <v>0.8031061278495366</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>89615</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72757</v>
+        <v>72510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110283</v>
+        <v>110505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1405108111758017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.114078338916884</v>
+        <v>0.1136900395921438</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1729157349822928</v>
+        <v>0.1732648277908076</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -1199,19 +1199,19 @@
         <v>137127</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115490</v>
+        <v>117618</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158687</v>
+        <v>160314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1988087600135303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1674388382684722</v>
+        <v>0.1705243044080352</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2300666090237299</v>
+        <v>0.2324250391481745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>216</v>
@@ -1220,19 +1220,19 @@
         <v>226743</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198788</v>
+        <v>200125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255450</v>
+        <v>254174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1708007222596377</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1497432690963363</v>
+        <v>0.1507504291590573</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1924257566590364</v>
+        <v>0.1914645665896726</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>548168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527500</v>
+        <v>527278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>565026</v>
+        <v>565273</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8594891888241983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8270842650177069</v>
+        <v>0.8267351722091922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8859216610831158</v>
+        <v>0.8863099604078561</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -1270,19 +1270,19 @@
         <v>552617</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>531057</v>
+        <v>529430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>574254</v>
+        <v>572126</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8011912399864697</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7699333909762701</v>
+        <v>0.7675749608518252</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8325611617315277</v>
+        <v>0.8294756955919648</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1054</v>
@@ -1291,19 +1291,19 @@
         <v>1100784</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1072077</v>
+        <v>1073353</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1128739</v>
+        <v>1127402</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8291992777403623</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8075742433409636</v>
+        <v>0.8085354334103274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8502567309036637</v>
+        <v>0.8492495708409427</v>
       </c>
     </row>
     <row r="12">
@@ -1398,16 +1398,16 @@
         <v>64531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97950</v>
+        <v>99360</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1541993319556804</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1243027788513432</v>
+        <v>0.1243024739917526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1886754644157816</v>
+        <v>0.1913906981252466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -1416,19 +1416,19 @@
         <v>103918</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86513</v>
+        <v>87013</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123935</v>
+        <v>121091</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2015315247938029</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1677765252576101</v>
+        <v>0.168747057901109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2403507551185212</v>
+        <v>0.2348358287285666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>177</v>
@@ -1437,19 +1437,19 @@
         <v>183970</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158408</v>
+        <v>160726</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>210454</v>
+        <v>210433</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1777852662216565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1530824698519997</v>
+        <v>0.1553220304982923</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2033783178719731</v>
+        <v>0.2033585911307747</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>439095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>421197</v>
+        <v>419787</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>454616</v>
@@ -1475,10 +1475,10 @@
         <v>0.8458006680443196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8113245355842184</v>
+        <v>0.8086093018747534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8756972211486568</v>
+        <v>0.8756975260082475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>399</v>
@@ -1487,19 +1487,19 @@
         <v>411724</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>391707</v>
+        <v>394551</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>429129</v>
+        <v>428629</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7984684752061971</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7596492448814787</v>
+        <v>0.7651641712714334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8322234747423897</v>
+        <v>0.831252942098891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>809</v>
@@ -1508,19 +1508,19 @@
         <v>850819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>824335</v>
+        <v>824356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>876381</v>
+        <v>874063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8222147337783435</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.796621682128027</v>
+        <v>0.7966414088692254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8469175301480004</v>
+        <v>0.8446779695017076</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>63105</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49217</v>
+        <v>49638</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77896</v>
+        <v>77975</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1631851086431407</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1272701343664872</v>
+        <v>0.1283590465249047</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2014328364798614</v>
+        <v>0.201635666259717</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -1633,19 +1633,19 @@
         <v>86432</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70992</v>
+        <v>70724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103676</v>
+        <v>103884</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2139471747175636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1757285738910069</v>
+        <v>0.1750657014333091</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2566322242098464</v>
+        <v>0.2571466618948821</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -1654,19 +1654,19 @@
         <v>149537</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128718</v>
+        <v>129595</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>172214</v>
+        <v>172706</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1891206927247234</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1627911936644434</v>
+        <v>0.1638994516953979</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2178008684639543</v>
+        <v>0.2184232354823946</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>323605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>308814</v>
+        <v>308735</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>337493</v>
+        <v>337072</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8368148913568593</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7985671635201386</v>
+        <v>0.798364333740283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8727298656335126</v>
+        <v>0.8716409534750953</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>312</v>
@@ -1704,19 +1704,19 @@
         <v>317554</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>300310</v>
+        <v>300102</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>332994</v>
+        <v>333262</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7860528252824364</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7433677757901541</v>
+        <v>0.7428533381051178</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8242714261089932</v>
+        <v>0.8249342985666909</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>641</v>
@@ -1725,19 +1725,19 @@
         <v>641159</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>618482</v>
+        <v>617990</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>661978</v>
+        <v>661101</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8108793072752766</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.782199131536046</v>
+        <v>0.7815767645176054</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8372088063355566</v>
+        <v>0.8361005483046022</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>61279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49467</v>
+        <v>48468</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74220</v>
+        <v>75946</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2094414461791511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.169070306964534</v>
+        <v>0.1656543469139121</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2536701315545826</v>
+        <v>0.2595720790192654</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>103</v>
@@ -1850,19 +1850,19 @@
         <v>94650</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78999</v>
+        <v>78217</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109979</v>
+        <v>111633</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2760000906320484</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2303620638315325</v>
+        <v>0.2280818870631092</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3206994570843069</v>
+        <v>0.3255223845143846</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>168</v>
@@ -1871,19 +1871,19 @@
         <v>155929</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>136274</v>
+        <v>132107</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>179860</v>
+        <v>175351</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2453574360563754</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2144306220962111</v>
+        <v>0.2078737988333019</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.283013234698889</v>
+        <v>0.2759184390952356</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>231304</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218363</v>
+        <v>216637</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243116</v>
+        <v>244115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7905585538208489</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7463298684454178</v>
+        <v>0.740427920980735</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.830929693035466</v>
+        <v>0.8343456530860879</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>268</v>
@@ -1921,19 +1921,19 @@
         <v>248284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>232955</v>
+        <v>231301</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263935</v>
+        <v>264717</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7239999093679517</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6793005429156929</v>
+        <v>0.674477615485615</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7696379361684674</v>
+        <v>0.7719181129368907</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>506</v>
@@ -1942,19 +1942,19 @@
         <v>479588</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>455657</v>
+        <v>460166</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>499243</v>
+        <v>503410</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7546425639436246</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7169867653011107</v>
+        <v>0.7240815609047643</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7855693779037889</v>
+        <v>0.7921262011666981</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>56629</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44483</v>
+        <v>44883</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69526</v>
+        <v>69548</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2698105888267153</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2119413831521317</v>
+        <v>0.2138489498967632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3312629668793808</v>
+        <v>0.3313643714437423</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -2067,19 +2067,19 @@
         <v>105129</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>86866</v>
+        <v>87594</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>124335</v>
+        <v>122654</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3148449228010139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2601487918684419</v>
+        <v>0.262330043681264</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3723625644586427</v>
+        <v>0.3673289942873835</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>149</v>
@@ -2088,19 +2088,19 @@
         <v>161758</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>140657</v>
+        <v>140257</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183148</v>
+        <v>182837</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2974633526045437</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2586606005967884</v>
+        <v>0.2579241364518496</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3367983169441948</v>
+        <v>0.3362273465012702</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>153254</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>140357</v>
+        <v>140335</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>165400</v>
+        <v>165000</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7301894111732846</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6687370331206193</v>
+        <v>0.6686356285562581</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7880586168478683</v>
+        <v>0.7861510501032369</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>198</v>
@@ -2138,19 +2138,19 @@
         <v>228779</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>209573</v>
+        <v>211254</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>247042</v>
+        <v>246314</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6851550771989861</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6276374355413572</v>
+        <v>0.6326710057126165</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7398512081315581</v>
+        <v>0.737669956318736</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>361</v>
@@ -2159,19 +2159,19 @@
         <v>382033</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>360643</v>
+        <v>360954</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>403134</v>
+        <v>403534</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7025366473954563</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6632016830558054</v>
+        <v>0.6637726534987299</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7413393994032117</v>
+        <v>0.7420758635481506</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>560346</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>515800</v>
+        <v>516376</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>601904</v>
+        <v>606568</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.171063724049147</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.157464536887354</v>
+        <v>0.1576402926281555</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1837504062115604</v>
+        <v>0.1851744090263748</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>803</v>
@@ -2284,19 +2284,19 @@
         <v>824009</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>771084</v>
+        <v>775698</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>872176</v>
+        <v>874941</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2439153450952016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2282491563117224</v>
+        <v>0.22961495712072</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2581733691087022</v>
+        <v>0.2589919036990064</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1352</v>
@@ -2305,19 +2305,19 @@
         <v>1384355</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1314990</v>
+        <v>1323385</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1448714</v>
+        <v>1456717</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2080511926119917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1976265454514131</v>
+        <v>0.1988881852235971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2177234842244514</v>
+        <v>0.2189262489467894</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2715313</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2673755</v>
+        <v>2669091</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2759859</v>
+        <v>2759283</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8289362759508531</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8162495937884396</v>
+        <v>0.8148255909736249</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.842535463112646</v>
+        <v>0.8423597073718442</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2493</v>
@@ -2355,19 +2355,19 @@
         <v>2554248</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2506081</v>
+        <v>2503316</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2607173</v>
+        <v>2602559</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7560846549047984</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7418266308912977</v>
+        <v>0.7410080963009938</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7717508436882775</v>
+        <v>0.7703850428792802</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5157</v>
@@ -2376,19 +2376,19 @@
         <v>5269560</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5205201</v>
+        <v>5197198</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5338925</v>
+        <v>5330530</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7919488073880083</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7822765157755485</v>
+        <v>0.7810737510532103</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8023734545485869</v>
+        <v>0.8011118147764028</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>109493</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92866</v>
+        <v>90728</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127569</v>
+        <v>128021</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2416029632956149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2049157913430552</v>
+        <v>0.2001970149297713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2814897160891641</v>
+        <v>0.2824865049880245</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>126</v>
@@ -2744,19 +2744,19 @@
         <v>129113</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110378</v>
+        <v>109631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148394</v>
+        <v>147699</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3001026051993076</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2565566833279362</v>
+        <v>0.2548205315312634</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3449172677932342</v>
+        <v>0.3433028458215713</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>235</v>
@@ -2765,19 +2765,19 @@
         <v>238606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>212411</v>
+        <v>214036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>264168</v>
+        <v>267935</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.270092518555913</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2404414039816717</v>
+        <v>0.2422811350564763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.299028355085201</v>
+        <v>0.3032919596959952</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>343699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>325623</v>
+        <v>325171</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>360326</v>
+        <v>362464</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7583970367043851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7185102839108358</v>
+        <v>0.7175134950119755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7950842086569447</v>
+        <v>0.7998029850702287</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>295</v>
@@ -2815,19 +2815,19 @@
         <v>301117</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281836</v>
+        <v>282531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>319852</v>
+        <v>320599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6998973948006924</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6550827322067657</v>
+        <v>0.6566971541784286</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7434433166720638</v>
+        <v>0.7451794684687364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>631</v>
@@ -2836,19 +2836,19 @@
         <v>644816</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619254</v>
+        <v>615487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>671011</v>
+        <v>669386</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.729907481444087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7009716449147989</v>
+        <v>0.6967080403040048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7595585960183281</v>
+        <v>0.7577188649435237</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>163066</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>141955</v>
+        <v>139783</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>187151</v>
+        <v>188124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2373298044149677</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2066039040381889</v>
+        <v>0.2034430844020597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2723833613650002</v>
+        <v>0.2737992902738103</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>194</v>
@@ -2961,19 +2961,19 @@
         <v>212460</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>188404</v>
+        <v>189747</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>240307</v>
+        <v>237689</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3487031394636745</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3092196686246576</v>
+        <v>0.3114254684652944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3944066762624206</v>
+        <v>0.3901096987493751</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>352</v>
@@ -2982,19 +2982,19 @@
         <v>375526</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>342029</v>
+        <v>342195</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>411445</v>
+        <v>407793</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2896744993291677</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2638353434398085</v>
+        <v>0.2639630658653582</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3173812616468796</v>
+        <v>0.3145645929093562</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>524021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>499936</v>
+        <v>498963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>545132</v>
+        <v>547304</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7626701955850324</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7276166386349999</v>
+        <v>0.7262007097261898</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.793396095961811</v>
+        <v>0.7965569155979403</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>376</v>
@@ -3032,19 +3032,19 @@
         <v>396827</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>368980</v>
+        <v>371598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>420883</v>
+        <v>419540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6512968605363255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6055933237375793</v>
+        <v>0.6098903012506249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6907803313753424</v>
+        <v>0.6885745315347057</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>885</v>
@@ -3053,19 +3053,19 @@
         <v>920848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>884929</v>
+        <v>888581</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>954345</v>
+        <v>954179</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7103255006708323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6826187383531203</v>
+        <v>0.6854354070906438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7361646565601914</v>
+        <v>0.7360369341346419</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>125717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105572</v>
+        <v>104444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146501</v>
+        <v>148050</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1845694653822307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1549941546148076</v>
+        <v>0.1533376412306155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2150834726701068</v>
+        <v>0.2173576886591936</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>158</v>
@@ -3178,19 +3178,19 @@
         <v>169503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>148226</v>
+        <v>146647</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196402</v>
+        <v>193989</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2388470028012349</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2088652570370758</v>
+        <v>0.2066401854110748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.276749788151143</v>
+        <v>0.2733501689301388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>273</v>
@@ -3199,19 +3199,19 @@
         <v>295220</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>264303</v>
+        <v>266550</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>327971</v>
+        <v>330288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.212265052469139</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1900355926625187</v>
+        <v>0.1916510362985389</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2358136062680516</v>
+        <v>0.2374793824917621</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>555419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>534635</v>
+        <v>533086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>575564</v>
+        <v>576692</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8154305346177694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7849165273298933</v>
+        <v>0.7826423113408068</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8450058453851924</v>
+        <v>0.8466623587693846</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>508</v>
@@ -3249,19 +3249,19 @@
         <v>540169</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>513270</v>
+        <v>515683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>561446</v>
+        <v>563025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7611529971987652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.723250211848857</v>
+        <v>0.7266498310698613</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7911347429629242</v>
+        <v>0.7933598145889252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1043</v>
@@ -3270,19 +3270,19 @@
         <v>1095587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1062836</v>
+        <v>1060519</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1126504</v>
+        <v>1124257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7877349475308609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7641863937319484</v>
+        <v>0.762520617508238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8099644073374814</v>
+        <v>0.8083489637014611</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>98873</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80715</v>
+        <v>81339</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118051</v>
+        <v>117393</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1608684926514176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.131325246027624</v>
+        <v>0.1323403851214615</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1920732620500264</v>
+        <v>0.1910013152524821</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -3395,19 +3395,19 @@
         <v>129853</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>108952</v>
+        <v>108316</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152064</v>
+        <v>154194</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2110610130105447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.177087913734847</v>
+        <v>0.1760544185332224</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.247162874698857</v>
+        <v>0.2506237503228753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>204</v>
@@ -3416,19 +3416,19 @@
         <v>228726</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>201675</v>
+        <v>199848</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>259623</v>
+        <v>255907</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1859774759066535</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1639824835238875</v>
+        <v>0.1624969267630652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2111001978982981</v>
+        <v>0.2080783225499777</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>515744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496566</v>
+        <v>497224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>533902</v>
+        <v>533278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8391315073485824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8079267379499736</v>
+        <v>0.8089986847475181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.868674753972376</v>
+        <v>0.8676596148785386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>426</v>
@@ -3466,19 +3466,19 @@
         <v>485387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463176</v>
+        <v>461046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>506288</v>
+        <v>506924</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7889389869894553</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.752837125301143</v>
+        <v>0.7493762496771247</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8229120862651529</v>
+        <v>0.8239455814667774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>882</v>
@@ -3487,19 +3487,19 @@
         <v>1001131</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>970234</v>
+        <v>973950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1028182</v>
+        <v>1030009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8140225240933465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.788899802101702</v>
+        <v>0.7919216774500223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8360175164761126</v>
+        <v>0.8375030732369347</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>75590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59602</v>
+        <v>60316</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91446</v>
+        <v>92603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1760250098101523</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1387937148423152</v>
+        <v>0.1404573892324189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2129483877834079</v>
+        <v>0.2156411623657875</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -3612,19 +3612,19 @@
         <v>104128</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88752</v>
+        <v>85475</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>124606</v>
+        <v>121318</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2325317350515764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1981959217878944</v>
+        <v>0.1908771955732112</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2782629013853818</v>
+        <v>0.2709204223282622</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>170</v>
@@ -3633,19 +3633,19 @@
         <v>179718</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155956</v>
+        <v>157098</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>205916</v>
+        <v>206596</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2048700513549391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.177782402793045</v>
+        <v>0.1790838276118283</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2347345795553899</v>
+        <v>0.2355100536369462</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>353839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>337983</v>
+        <v>336826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>369827</v>
+        <v>369113</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8239749901898478</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.787051612216592</v>
+        <v>0.7843588376342128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8612062851576842</v>
+        <v>0.8595426107675814</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>308</v>
@@ -3683,19 +3683,19 @@
         <v>343672</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>323194</v>
+        <v>326482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>359048</v>
+        <v>362325</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7674682649484236</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.721737098614618</v>
+        <v>0.7290795776717378</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8018040782121055</v>
+        <v>0.8091228044267883</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>629</v>
@@ -3704,19 +3704,19 @@
         <v>697511</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>671313</v>
+        <v>670633</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>721273</v>
+        <v>720131</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7951299486450609</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7652654204446101</v>
+        <v>0.7644899463630531</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8222175972069551</v>
+        <v>0.8209161723881715</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>56496</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42189</v>
+        <v>43003</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73941</v>
+        <v>70942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1829630862039478</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1366283930204149</v>
+        <v>0.1392644038690419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2394567944674367</v>
+        <v>0.229743869714494</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -3829,19 +3829,19 @@
         <v>92124</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76467</v>
+        <v>75714</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109726</v>
+        <v>109272</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2602409780638817</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2160118524663482</v>
+        <v>0.2138849927901204</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3099649507930056</v>
+        <v>0.3086817414441571</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -3850,19 +3850,19 @@
         <v>148621</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>126149</v>
+        <v>128549</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170104</v>
+        <v>173258</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2242376613098898</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1903329403283984</v>
+        <v>0.1939535040942454</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.256651315171133</v>
+        <v>0.2614107102874818</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>252290</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234845</v>
+        <v>237844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266597</v>
+        <v>265783</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8170369137960523</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7605432055325633</v>
+        <v>0.7702561302855061</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8633716069795851</v>
+        <v>0.8607355961309581</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -3900,19 +3900,19 @@
         <v>261872</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>244270</v>
+        <v>244724</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277529</v>
+        <v>278282</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7397590219361183</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6900350492069944</v>
+        <v>0.6913182585558429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7839881475336518</v>
+        <v>0.7861150072098796</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>486</v>
@@ -3921,19 +3921,19 @@
         <v>514161</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>492678</v>
+        <v>489524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>536633</v>
+        <v>534233</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7757623386901101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7433486848288671</v>
+        <v>0.7385892897125188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8096670596716016</v>
+        <v>0.8060464959057547</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>77323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63108</v>
+        <v>61427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92654</v>
+        <v>93815</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3094750613201022</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2525844577733815</v>
+        <v>0.2458544661396205</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.370838481830097</v>
+        <v>0.3754853845014691</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>129</v>
@@ -4046,19 +4046,19 @@
         <v>142291</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>123092</v>
+        <v>123266</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162122</v>
+        <v>161809</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3658065905162515</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3164487959037969</v>
+        <v>0.3168972362692841</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4167891349566157</v>
+        <v>0.4159826393829325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>198</v>
@@ -4067,19 +4067,19 @@
         <v>219614</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>196502</v>
+        <v>194347</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>247069</v>
+        <v>245948</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3437749327569649</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3075971924969973</v>
+        <v>0.3042235518297383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3867519327356141</v>
+        <v>0.3849976335966752</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>172528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>157197</v>
+        <v>156036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>186743</v>
+        <v>188424</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6905249386798978</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.629161518169903</v>
+        <v>0.6245146154985309</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7474155422266185</v>
+        <v>0.7541455338603795</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>221</v>
@@ -4117,19 +4117,19 @@
         <v>246688</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>226857</v>
+        <v>227170</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>265887</v>
+        <v>265713</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6341934094837486</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5832108650433844</v>
+        <v>0.5840173606170674</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6835512040962035</v>
+        <v>0.6831027637307155</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>374</v>
@@ -4138,19 +4138,19 @@
         <v>419216</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>391761</v>
+        <v>392882</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>442328</v>
+        <v>444483</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6562250672430351</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.613248067264386</v>
+        <v>0.6150023664033248</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.692402807503003</v>
+        <v>0.6957764481702619</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>706558</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>659024</v>
+        <v>658971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>761583</v>
+        <v>759415</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2063485053197523</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1924663082287617</v>
+        <v>0.1924509127457591</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2224187144832533</v>
+        <v>0.2217852855863815</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>908</v>
@@ -4263,19 +4263,19 @@
         <v>979472</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>927659</v>
+        <v>927459</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1034381</v>
+        <v>1037634</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2755039324934101</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.26092990954489</v>
+        <v>0.2608736943545716</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2909485939726816</v>
+        <v>0.2918636050331002</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1571</v>
@@ -4284,19 +4284,19 @@
         <v>1686030</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1619238</v>
+        <v>1611810</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1759638</v>
+        <v>1761978</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2415757574292543</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2320057498353366</v>
+        <v>0.230941461576987</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2521224223730026</v>
+        <v>0.2524577271466536</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2717540</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2662515</v>
+        <v>2664683</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2765074</v>
+        <v>2765127</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7936514946802476</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7775812855167464</v>
+        <v>0.7782147144136183</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8075336917712382</v>
+        <v>0.8075490872542405</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2387</v>
@@ -4334,19 +4334,19 @@
         <v>2575731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2520822</v>
+        <v>2517569</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2627544</v>
+        <v>2627744</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7244960675065899</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7090514060273183</v>
+        <v>0.7081363949668995</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7390700904551096</v>
+        <v>0.7391263056454281</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4930</v>
@@ -4355,19 +4355,19 @@
         <v>5293271</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5219663</v>
+        <v>5217323</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5360063</v>
+        <v>5367491</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7584242425707457</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7478775776269975</v>
+        <v>0.7475422728533464</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7679942501646635</v>
+        <v>0.769058538423013</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>93555</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77379</v>
+        <v>76425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112822</v>
+        <v>112129</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.223035544363239</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.184472613452872</v>
+        <v>0.1821967085243668</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2689688121222027</v>
+        <v>0.2673157950123175</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -4723,19 +4723,19 @@
         <v>94283</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>79305</v>
+        <v>78086</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113682</v>
+        <v>112652</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2382345524361287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2003883815186872</v>
+        <v>0.1973091931765191</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2872534764825302</v>
+        <v>0.2846503460577053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -4744,19 +4744,19 @@
         <v>187838</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>163439</v>
+        <v>162272</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>209518</v>
+        <v>213243</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.230414041248784</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2004850579751043</v>
+        <v>0.1990529602495283</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2570080967595842</v>
+        <v>0.2615775708378212</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>325908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306641</v>
+        <v>307334</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>342084</v>
+        <v>343038</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.776964455636761</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7310311878777974</v>
+        <v>0.7326842049876825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.815527386547128</v>
+        <v>0.8178032914756332</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>308</v>
@@ -4794,19 +4794,19 @@
         <v>301472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282073</v>
+        <v>283103</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>316450</v>
+        <v>317669</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7617654475638713</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7127465235174698</v>
+        <v>0.7153496539422947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7996116184813128</v>
+        <v>0.8026908068234809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>615</v>
@@ -4815,19 +4815,19 @@
         <v>627380</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>605700</v>
+        <v>601975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>651779</v>
+        <v>652946</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7695859587512159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7429919032404158</v>
+        <v>0.7384224291621786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7995149420248957</v>
+        <v>0.8009470397504717</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>96577</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79676</v>
+        <v>80956</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116230</v>
+        <v>116018</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1644461552316948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1356678511163657</v>
+        <v>0.1378483034326823</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1979102449649952</v>
+        <v>0.1975497678174555</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -4940,19 +4940,19 @@
         <v>140520</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>119602</v>
+        <v>118909</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159712</v>
+        <v>161264</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2497422586144593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2125658829366845</v>
+        <v>0.2113335818122609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2838522868698523</v>
+        <v>0.2866107340368589</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>232</v>
@@ -4961,19 +4961,19 @@
         <v>237097</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>211860</v>
+        <v>211863</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>266189</v>
+        <v>267734</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2061809372185765</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1842349715646596</v>
+        <v>0.1842379561556103</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2314800204625883</v>
+        <v>0.2328238571034228</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>490707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>471054</v>
+        <v>471266</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>507608</v>
+        <v>506328</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8355538447683052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.802089755035005</v>
+        <v>0.802450232182545</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8643321488836343</v>
+        <v>0.8621516965673178</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>437</v>
@@ -5011,19 +5011,19 @@
         <v>422139</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>402947</v>
+        <v>401395</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>443057</v>
+        <v>443750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7502577413855407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7161477131301477</v>
+        <v>0.713389265963141</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7874341170633156</v>
+        <v>0.7886664181877391</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>910</v>
@@ -5032,19 +5032,19 @@
         <v>912847</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>883755</v>
+        <v>882210</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>938084</v>
+        <v>938081</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7938190627814236</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7685199795374117</v>
+        <v>0.7671761428965772</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8157650284353404</v>
+        <v>0.8157620438443898</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>107456</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88051</v>
+        <v>88442</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128417</v>
+        <v>130235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1612150469563534</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1321010842365298</v>
+        <v>0.1326876127775845</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1926619152363833</v>
+        <v>0.1953891549100207</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -5157,19 +5157,19 @@
         <v>142192</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>122678</v>
+        <v>121817</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166482</v>
+        <v>164175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2152732213598849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1857297191370147</v>
+        <v>0.18442705268868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.252047115879581</v>
+        <v>0.248554429948896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -5178,19 +5178,19 @@
         <v>249648</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>222181</v>
+        <v>221809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>281923</v>
+        <v>278643</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1881214686034049</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1674238680791719</v>
+        <v>0.167143443205001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2124417050864934</v>
+        <v>0.2099702667886282</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>559085</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538124</v>
+        <v>536306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>578490</v>
+        <v>578099</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8387849530436466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8073380847636166</v>
+        <v>0.8046108450899793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8678989157634701</v>
+        <v>0.8673123872224154</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>526</v>
@@ -5228,19 +5228,19 @@
         <v>518326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>494036</v>
+        <v>496343</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>537840</v>
+        <v>538701</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7847267786401151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7479528841204188</v>
+        <v>0.7514455700511039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8142702808629851</v>
+        <v>0.81557294731132</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1064</v>
@@ -5249,19 +5249,19 @@
         <v>1077411</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1045136</v>
+        <v>1048416</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1104878</v>
+        <v>1105250</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.811878531396595</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7875582949135067</v>
+        <v>0.7900297332113719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8325761319208281</v>
+        <v>0.832856556794999</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>91270</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73356</v>
+        <v>74813</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110074</v>
+        <v>113235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1417203335678951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1139047488300105</v>
+        <v>0.1161657896548523</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1709176752406712</v>
+        <v>0.1758264878755792</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -5374,19 +5374,19 @@
         <v>116696</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99678</v>
+        <v>97184</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137790</v>
+        <v>139653</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.179788216454439</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.153569263682288</v>
+        <v>0.1497260071042407</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2122854941481798</v>
+        <v>0.2151566800011085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>189</v>
@@ -5395,19 +5395,19 @@
         <v>207966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>183833</v>
+        <v>182296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238654</v>
+        <v>235313</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1608287828960827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1421653817415954</v>
+        <v>0.1409770513485077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1845606800207383</v>
+        <v>0.181976848840256</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>552745</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>533941</v>
+        <v>530780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>570659</v>
+        <v>569202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8582796664321048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8290823247593287</v>
+        <v>0.8241735121244208</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8860952511699897</v>
+        <v>0.883834210345148</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -5445,19 +5445,19 @@
         <v>532381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>511287</v>
+        <v>509424</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>549399</v>
+        <v>551893</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.820211783545561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.78771450585182</v>
+        <v>0.7848433199988913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8464307363177119</v>
+        <v>0.850273992895759</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>993</v>
@@ -5466,19 +5466,19 @@
         <v>1085126</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1054438</v>
+        <v>1057779</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1109259</v>
+        <v>1110796</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8391712171039174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8154393199792617</v>
+        <v>0.8180231511597437</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8578346182584046</v>
+        <v>0.8590229486514923</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>73290</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58770</v>
+        <v>57138</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90756</v>
+        <v>90390</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1539739014789614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1234678731428672</v>
+        <v>0.1200403574939444</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1906670675450851</v>
+        <v>0.1898991317783257</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -5591,19 +5591,19 @@
         <v>90000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73986</v>
+        <v>73358</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109972</v>
+        <v>111241</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1818078914491016</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1494566414867471</v>
+        <v>0.1481897244106114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2221531341147571</v>
+        <v>0.2247159575128</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>144</v>
@@ -5612,19 +5612,19 @@
         <v>163291</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>139817</v>
+        <v>140695</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188806</v>
+        <v>188305</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1681637666844275</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1439895909600234</v>
+        <v>0.1448937824019548</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1944402911822461</v>
+        <v>0.1939251694655981</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>402701</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>385235</v>
+        <v>385601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>417221</v>
+        <v>418853</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8460260985210386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8093329324549148</v>
+        <v>0.8101008682216744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8765321268571327</v>
+        <v>0.8799596425060557</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>354</v>
@@ -5662,19 +5662,19 @@
         <v>405030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>385058</v>
+        <v>383789</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>421044</v>
+        <v>421672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8181921085508984</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7778468658852429</v>
+        <v>0.7752840424872002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8505433585132529</v>
+        <v>0.8518102755893887</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>710</v>
@@ -5683,19 +5683,19 @@
         <v>807730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>782215</v>
+        <v>782716</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>831204</v>
+        <v>830326</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8318362333155725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8055597088177542</v>
+        <v>0.8060748305344019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8560104090399767</v>
+        <v>0.8551062175980448</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>56961</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42476</v>
+        <v>43806</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71346</v>
+        <v>72832</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1708535922470353</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.127405635772462</v>
+        <v>0.1313948185353163</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2139991715068142</v>
+        <v>0.2184581042573423</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -5808,19 +5808,19 @@
         <v>79602</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65024</v>
+        <v>65417</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96194</v>
+        <v>98010</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2116265633371684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1728681327623085</v>
+        <v>0.173913372233453</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2557360965853904</v>
+        <v>0.2605647638900431</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -5829,19 +5829,19 @@
         <v>136564</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116998</v>
+        <v>116272</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158953</v>
+        <v>159243</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1924684782911522</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1648938957182428</v>
+        <v>0.1638706248894619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2240231290497838</v>
+        <v>0.2244321975582309</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>276431</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>262046</v>
+        <v>260560</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290916</v>
+        <v>289586</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8291464077529647</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7860008284931858</v>
+        <v>0.7815418957426573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8725943642275379</v>
+        <v>0.8686051814646836</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>278</v>
@@ -5879,19 +5879,19 @@
         <v>296544</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>279952</v>
+        <v>278136</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>311122</v>
+        <v>310729</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7883734366628316</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7442639034146101</v>
+        <v>0.739435236109957</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8271318672376915</v>
+        <v>0.8260866277665471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>548</v>
@@ -5900,19 +5900,19 @@
         <v>572974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>550585</v>
+        <v>550295</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>592540</v>
+        <v>593266</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8075315217088479</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7759768709502163</v>
+        <v>0.7755678024417696</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8351061042817574</v>
+        <v>0.8361293751105381</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>45480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35083</v>
+        <v>35140</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57321</v>
+        <v>58379</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1769663968551145</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1365104957543141</v>
+        <v>0.1367319482375033</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.223041183515691</v>
+        <v>0.2271555083299666</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -6025,19 +6025,19 @@
         <v>98186</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79999</v>
+        <v>80199</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>116449</v>
+        <v>116697</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2461436559357328</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2005508741185215</v>
+        <v>0.2010519292328105</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2919259744675871</v>
+        <v>0.2925489626365962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>126</v>
@@ -6046,19 +6046,19 @@
         <v>143666</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>122366</v>
+        <v>121353</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>168205</v>
+        <v>167025</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2190381098460751</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1865624953059171</v>
+        <v>0.1850188677171947</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2564501071007365</v>
+        <v>0.2546517115881452</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>211518</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>199677</v>
+        <v>198619</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>221915</v>
+        <v>221858</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8230336031448855</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7769588164843093</v>
+        <v>0.7728444916700338</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.863489504245686</v>
+        <v>0.8632680517624967</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>227</v>
@@ -6096,19 +6096,19 @@
         <v>300712</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>282449</v>
+        <v>282201</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>318899</v>
+        <v>318699</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7538563440642672</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7080740255324125</v>
+        <v>0.7074510373634038</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7994491258814782</v>
+        <v>0.7989480707671893</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>476</v>
@@ -6117,19 +6117,19 @@
         <v>512230</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>487691</v>
+        <v>488871</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>533530</v>
+        <v>534543</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7809618901539249</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7435498928992633</v>
+        <v>0.7453482884118547</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8134375046940829</v>
+        <v>0.8149811322828053</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>564590</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>523043</v>
+        <v>520135</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>613874</v>
+        <v>605436</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1668564885274853</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1545779012480986</v>
+        <v>0.153718486892709</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1814217473284463</v>
+        <v>0.1789280006531407</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>708</v>
@@ -6242,19 +6242,19 @@
         <v>761480</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>707435</v>
+        <v>710646</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>809216</v>
+        <v>808683</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.215223769123474</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1999486877075719</v>
+        <v>0.2008562707075933</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2287158568889233</v>
+        <v>0.2285652821353783</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1238</v>
@@ -6263,19 +6263,19 @@
         <v>1326069</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1263701</v>
+        <v>1260580</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1397308</v>
+        <v>1392659</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1915795747036316</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1825691246258811</v>
+        <v>0.1821182271502615</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2018716299385435</v>
+        <v>0.2011998536914071</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2819094</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2769810</v>
+        <v>2778248</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2860641</v>
+        <v>2863549</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8331435114725148</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.818578252671554</v>
+        <v>0.8210719993468595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8454220987519014</v>
+        <v>0.8462815131072912</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2625</v>
@@ -6313,19 +6313,19 @@
         <v>2776603</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2728867</v>
+        <v>2729400</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2830648</v>
+        <v>2827437</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.784776230876526</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.771284143111077</v>
+        <v>0.7714347178646216</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8000513122924281</v>
+        <v>0.7991437292924066</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5316</v>
@@ -6334,19 +6334,19 @@
         <v>5595698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5524459</v>
+        <v>5529108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5658066</v>
+        <v>5661187</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8084204252963684</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7981283700614563</v>
+        <v>0.7988001463085928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8174308753741188</v>
+        <v>0.8178817728497383</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>73657</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51530</v>
+        <v>51742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101201</v>
+        <v>102455</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1806228049679125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1263636576495443</v>
+        <v>0.1268835069056169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2481677886376087</v>
+        <v>0.2512418656375489</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -6702,19 +6702,19 @@
         <v>95039</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>74198</v>
+        <v>71956</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119745</v>
+        <v>116808</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2637849609890562</v>
+        <v>0.2637849609890561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2059402514385731</v>
+        <v>0.1997170431063376</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3323604864054958</v>
+        <v>0.3242063935695963</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -6723,19 +6723,19 @@
         <v>168695</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>135659</v>
+        <v>134703</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>206705</v>
+        <v>206268</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2196321325960706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1766204086595016</v>
+        <v>0.1753758645131898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2691188308956514</v>
+        <v>0.2685491580854331</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>334136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306592</v>
+        <v>305338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>356263</v>
+        <v>356051</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8193771950320877</v>
+        <v>0.8193771950320874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7518322113623912</v>
+        <v>0.7487581343624509</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8736363423504558</v>
+        <v>0.873116493094383</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>153</v>
@@ -6773,19 +6773,19 @@
         <v>265249</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>240543</v>
+        <v>243480</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286090</v>
+        <v>288332</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.736215039010944</v>
+        <v>0.7362150390109439</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6676395135945044</v>
+        <v>0.6757936064304038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7940597485614268</v>
+        <v>0.8002829568936628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>298</v>
@@ -6794,19 +6794,19 @@
         <v>599386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>561376</v>
+        <v>561813</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>632422</v>
+        <v>633378</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7803678674039295</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7308811691043487</v>
+        <v>0.731450841914567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8233795913404983</v>
+        <v>0.8246241354868102</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>97465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77384</v>
+        <v>76855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124664</v>
+        <v>124858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2043766073180303</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1622682674399076</v>
+        <v>0.1611580002702593</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2614100790696771</v>
+        <v>0.2618173549874066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -6919,19 +6919,19 @@
         <v>130520</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109892</v>
+        <v>112312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151833</v>
+        <v>151970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2604767799849009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2193080127524089</v>
+        <v>0.2241386226910472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3030101082383478</v>
+        <v>0.3032836799849088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>181</v>
@@ -6940,19 +6940,19 @@
         <v>227986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>199463</v>
+        <v>195261</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>259484</v>
+        <v>256384</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2331205886577194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2039556208643501</v>
+        <v>0.199659156746918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2653287330254535</v>
+        <v>0.262158424552357</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>379425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352226</v>
+        <v>352032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>399506</v>
+        <v>400035</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7956233926819697</v>
+        <v>0.7956233926819698</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7385899209303229</v>
+        <v>0.7381826450125933</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8377317325600923</v>
+        <v>0.8388419997297407</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>340</v>
@@ -6990,19 +6990,19 @@
         <v>370563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349250</v>
+        <v>349113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>391191</v>
+        <v>388771</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.739523220015099</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6969898917616524</v>
+        <v>0.6967163200150912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7806919872475909</v>
+        <v>0.775861377308953</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>581</v>
@@ -7011,19 +7011,19 @@
         <v>749987</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>718489</v>
+        <v>721589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>778510</v>
+        <v>782712</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7668794113422805</v>
+        <v>0.7668794113422804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7346712669745465</v>
+        <v>0.737841575447643</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7960443791356497</v>
+        <v>0.8003408432530823</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>128613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108112</v>
+        <v>109036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151326</v>
+        <v>150676</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2071606555146354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1741392720598562</v>
+        <v>0.1756269001261927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2437456752736494</v>
+        <v>0.2426981689830077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>207</v>
@@ -7136,19 +7136,19 @@
         <v>150967</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132593</v>
+        <v>132042</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168092</v>
+        <v>168500</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2432925593567865</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2136805636756736</v>
+        <v>0.212793666747939</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2708890076787367</v>
+        <v>0.2715468588372898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>321</v>
@@ -7157,19 +7157,19 @@
         <v>279580</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249599</v>
+        <v>249381</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>308336</v>
+        <v>306065</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2252219736219616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2010697103410166</v>
+        <v>0.2008941972541831</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2483868797546334</v>
+        <v>0.2465568346980357</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>492224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>469511</v>
+        <v>470161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512725</v>
+        <v>511801</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7928393444853646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7562543247263507</v>
+        <v>0.7573018310169922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8258607279401439</v>
+        <v>0.8243730998738072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>637</v>
@@ -7207,19 +7207,19 @@
         <v>469551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>452426</v>
+        <v>452018</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>487925</v>
+        <v>488476</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7567074406432136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7291109923212633</v>
+        <v>0.72845314116271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7863194363243265</v>
+        <v>0.7872063332520614</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1069</v>
@@ -7228,19 +7228,19 @@
         <v>961775</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>933019</v>
+        <v>935290</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>991756</v>
+        <v>991974</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7747780263780383</v>
+        <v>0.7747780263780384</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7516131202453665</v>
+        <v>0.7534431653019645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7989302896589834</v>
+        <v>0.7991058027458169</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>173286</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>151436</v>
+        <v>149695</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>196650</v>
+        <v>197436</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.248030644143433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2167564213301338</v>
+        <v>0.2142636593884364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2814733311233032</v>
+        <v>0.2825969917646798</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>272</v>
@@ -7353,19 +7353,19 @@
         <v>176673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158579</v>
+        <v>157898</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>196218</v>
+        <v>194038</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2399814407615549</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.215403424943702</v>
+        <v>0.2144791824664474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2665307631854397</v>
+        <v>0.2635687346461298</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>434</v>
@@ -7374,19 +7374,19 @@
         <v>349959</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>321129</v>
+        <v>319321</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>376968</v>
+        <v>378210</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2439007255611403</v>
+        <v>0.2439007255611404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2238077828351905</v>
+        <v>0.2225481401627024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2627245445408353</v>
+        <v>0.2635901766799089</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>525361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>501997</v>
+        <v>501211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>547211</v>
+        <v>548952</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.751969355856567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7185266688766969</v>
+        <v>0.7174030082353201</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7832435786698663</v>
+        <v>0.7857363406115637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>868</v>
@@ -7424,19 +7424,19 @@
         <v>559521</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>539976</v>
+        <v>542156</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>577615</v>
+        <v>578296</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7600185592384451</v>
+        <v>0.7600185592384453</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7334692368145607</v>
+        <v>0.7364312653538702</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7845965750562981</v>
+        <v>0.7855208175335524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1370</v>
@@ -7445,19 +7445,19 @@
         <v>1084882</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1057873</v>
+        <v>1056631</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1113712</v>
+        <v>1115520</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7560992744388597</v>
+        <v>0.7560992744388598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.737275455459165</v>
+        <v>0.7364098233200911</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7761922171648096</v>
+        <v>0.7774518598372976</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>124955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104274</v>
+        <v>107269</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146022</v>
+        <v>144441</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2050645061742167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1711247370510585</v>
+        <v>0.1760399264090466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2396373565643561</v>
+        <v>0.2370426871567343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>233</v>
@@ -7570,19 +7570,19 @@
         <v>146779</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132076</v>
+        <v>128517</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>164394</v>
+        <v>163417</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2413592661089498</v>
+        <v>0.2413592661089499</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2171832210553106</v>
+        <v>0.2113300731616513</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2703257731135019</v>
+        <v>0.2687194050423147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>367</v>
@@ -7591,19 +7591,19 @@
         <v>271734</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>247940</v>
+        <v>245562</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>297147</v>
+        <v>296378</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2231937940422124</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2036501514624377</v>
+        <v>0.2016974508137271</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2440672161603849</v>
+        <v>0.2434357120580152</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>484391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>463324</v>
+        <v>464905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>505072</v>
+        <v>502077</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7949354938257833</v>
+        <v>0.7949354938257832</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.760362643435644</v>
+        <v>0.7629573128432657</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8288752629489416</v>
+        <v>0.8239600735909535</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>768</v>
@@ -7641,19 +7641,19 @@
         <v>461354</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>443739</v>
+        <v>444716</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>476057</v>
+        <v>479616</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7586407338910501</v>
+        <v>0.7586407338910505</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.729674226886498</v>
+        <v>0.7312805949576852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7828167789446889</v>
+        <v>0.7886699268383486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1297</v>
@@ -7662,19 +7662,19 @@
         <v>945745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>920332</v>
+        <v>921101</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>969539</v>
+        <v>971917</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7768062059577876</v>
+        <v>0.7768062059577877</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7559327838396152</v>
+        <v>0.7565642879419848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7963498485375623</v>
+        <v>0.7983025491862727</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>71884</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59793</v>
+        <v>60207</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84142</v>
+        <v>86095</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1765835787310787</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1468835471830651</v>
+        <v>0.1478990966312415</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2066964707655435</v>
+        <v>0.2114949329559645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>184</v>
@@ -7787,19 +7787,19 @@
         <v>102126</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89527</v>
+        <v>90017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>115135</v>
+        <v>115350</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2329109228895305</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2041765156570833</v>
+        <v>0.2052935246561547</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2625781537127355</v>
+        <v>0.2630698244078031</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>283</v>
@@ -7808,19 +7808,19 @@
         <v>174010</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>156541</v>
+        <v>156214</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>192664</v>
+        <v>194082</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2057930653244124</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1851333816036815</v>
+        <v>0.1847461857785143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.227853832740888</v>
+        <v>0.2295308977501259</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>335196</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>322938</v>
+        <v>320985</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>347287</v>
+        <v>346873</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8234164212689212</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7933035292344564</v>
+        <v>0.7885050670440357</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8531164528169348</v>
+        <v>0.8521009033687585</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>642</v>
@@ -7858,19 +7858,19 @@
         <v>336352</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>323343</v>
+        <v>323128</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>348951</v>
+        <v>348461</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7670890771104694</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7374218462872646</v>
+        <v>0.7369301755921971</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7958234843429166</v>
+        <v>0.7947064753438452</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1113</v>
@@ -7879,19 +7879,19 @@
         <v>671548</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>652894</v>
+        <v>651476</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>689017</v>
+        <v>689344</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7942069346755876</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7721461672591121</v>
+        <v>0.7704691022498741</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8148666183963185</v>
+        <v>0.8152538142214858</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>63322</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53046</v>
+        <v>51203</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76043</v>
+        <v>74785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2041355604050283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1710057316756607</v>
+        <v>0.1650666969735727</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2451428135048782</v>
+        <v>0.2410879246157831</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>244</v>
@@ -8004,19 +8004,19 @@
         <v>132625</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>118595</v>
+        <v>118953</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147334</v>
+        <v>148069</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2861553784002857</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2558838356935241</v>
+        <v>0.2566556808749028</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3178912366901211</v>
+        <v>0.31947807910045</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>342</v>
@@ -8025,19 +8025,19 @@
         <v>195947</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>178488</v>
+        <v>178485</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>216432</v>
+        <v>216519</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2532700332802535</v>
+        <v>0.2532700332802536</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2307032936085698</v>
+        <v>0.2306991149816008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2797477901758473</v>
+        <v>0.2798590017706697</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>246876</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>234155</v>
+        <v>235413</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>257152</v>
+        <v>258995</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7958644395949716</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7548571864951218</v>
+        <v>0.7589120753842168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8289942683243393</v>
+        <v>0.8349333030264271</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>635</v>
@@ -8075,19 +8075,19 @@
         <v>330847</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>316138</v>
+        <v>315403</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>344877</v>
+        <v>344519</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7138446215997143</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6821087633098782</v>
+        <v>0.68052192089955</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7441161643064758</v>
+        <v>0.7433443191250971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>995</v>
@@ -8096,19 +8096,19 @@
         <v>577723</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>557238</v>
+        <v>557151</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>595182</v>
+        <v>595185</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7467299667197463</v>
+        <v>0.7467299667197465</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7202522098241524</v>
+        <v>0.7201409982293302</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7692967063914299</v>
+        <v>0.7693008850183991</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>733182</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>680790</v>
+        <v>676955</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>785097</v>
+        <v>784872</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2076537677813644</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1928149592804362</v>
+        <v>0.191728900778507</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2223571642903723</v>
+        <v>0.2222933387858264</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1313</v>
@@ -8221,19 +8221,19 @@
         <v>934729</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>886223</v>
+        <v>890530</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>981969</v>
+        <v>986502</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2507209178145915</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.237710050008088</v>
+        <v>0.238865324630576</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2633919701758674</v>
+        <v>0.2646079491746523</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2008</v>
@@ -8242,19 +8242,19 @@
         <v>1667911</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1599061</v>
+        <v>1606087</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1740913</v>
+        <v>1741041</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.229772851941286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2202879314546853</v>
+        <v>0.2212558337857704</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2398296367169328</v>
+        <v>0.2398472623540909</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2797610</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2745695</v>
+        <v>2745920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2850002</v>
+        <v>2853837</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7923462322186355</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7776428357096279</v>
+        <v>0.7777066612141736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8071850407195638</v>
+        <v>0.808271099221493</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4043</v>
@@ -8292,19 +8292,19 @@
         <v>2793437</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2746197</v>
+        <v>2741664</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2841943</v>
+        <v>2837636</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7492790821854085</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7366080298241331</v>
+        <v>0.7353920508253479</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.762289949991912</v>
+        <v>0.7611346753694243</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6723</v>
@@ -8313,19 +8313,19 @@
         <v>5591047</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5518045</v>
+        <v>5517917</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5659897</v>
+        <v>5652871</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.770227148058714</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7601703632830673</v>
+        <v>0.7601527376459092</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7797120685453148</v>
+        <v>0.7787441662142296</v>
       </c>
     </row>
     <row r="27">
